--- a/5 семестр (Квантовая физика)/4.1/4.1.xlsx
+++ b/5 семестр (Квантовая физика)/4.1/4.1.xlsx
@@ -8,15 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leonidbarinov/Desktop/latexlabs/5 семестр (Квантовая физика)/4.1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F004BF3-AB19-3743-923C-5392302C8ABB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949FF178-4998-C34D-A443-9773B886B075}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="1480" windowWidth="28240" windowHeight="17560" xr2:uid="{B42A2861-1699-164D-92C1-36A0D4A94945}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="3" xr2:uid="{B42A2861-1699-164D-92C1-36A0D4A94945}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Лист4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Лист3!$A$1:$B$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Лист4!$A$1:$B$21</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>I, pA</t>
   </si>
@@ -86,6 +92,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>I</t>
   </si>
 </sst>
 </file>
@@ -2248,16 +2257,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>676728</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>171149</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>137283</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>274561</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>73178</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>428089</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>51752</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2620,8 +2629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E81DCE-A901-054B-8B1D-F6151793DE17}">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="89" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3587,4 +3596,487 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA5BF445-AF8C-4445-91E4-A7B7ED6D200D}">
+  <dimension ref="A1:B34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3.4</v>
+      </c>
+      <c r="B3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>30.6</v>
+      </c>
+      <c r="B5">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>44.2</v>
+      </c>
+      <c r="B6">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>57.8</v>
+      </c>
+      <c r="B7">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>59.16</v>
+      </c>
+      <c r="B8">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>60.52</v>
+      </c>
+      <c r="B9">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>61.88</v>
+      </c>
+      <c r="B10">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>63.24</v>
+      </c>
+      <c r="B11">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="B12">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>65.959999999999994</v>
+      </c>
+      <c r="B13">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>67.319999999999993</v>
+      </c>
+      <c r="B14">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>68.680000000000007</v>
+      </c>
+      <c r="B15">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>70.040000000000006</v>
+      </c>
+      <c r="B16">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="B17">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="B18">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>72.760000000000005</v>
+      </c>
+      <c r="B19">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>74.12</v>
+      </c>
+      <c r="B20">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>75.48</v>
+      </c>
+      <c r="B21">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>76.84</v>
+      </c>
+      <c r="B22">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>78.2</v>
+      </c>
+      <c r="B23">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>79.56</v>
+      </c>
+      <c r="B24">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>80.92</v>
+      </c>
+      <c r="B25">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>82.28</v>
+      </c>
+      <c r="B26">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>83.64</v>
+      </c>
+      <c r="B27">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>85</v>
+      </c>
+      <c r="B28">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>87.72</v>
+      </c>
+      <c r="B29">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>90.44</v>
+      </c>
+      <c r="B30">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>93.16</v>
+      </c>
+      <c r="B31">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>95.88</v>
+      </c>
+      <c r="B32">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>98.6</v>
+      </c>
+      <c r="B33">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>99.28</v>
+      </c>
+      <c r="B34">
+        <v>913</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B34" xr:uid="{1E3D7E9E-61DC-8C49-BB3C-53C27E240F54}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B34">
+      <sortCondition ref="A1:A34"/>
+    </sortState>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B34">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B611C3-2F1C-4040-84B0-6D5E507FAFC3}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>364.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3.4</v>
+      </c>
+      <c r="B3">
+        <v>345.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>6.12</v>
+      </c>
+      <c r="B4">
+        <v>336.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>8.84</v>
+      </c>
+      <c r="B5">
+        <v>325.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>11.56</v>
+      </c>
+      <c r="B6">
+        <v>295.60000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>14.28</v>
+      </c>
+      <c r="B7">
+        <v>284.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>238.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>19.72</v>
+      </c>
+      <c r="B9">
+        <v>215.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>22.44</v>
+      </c>
+      <c r="B10">
+        <v>181.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>25.16</v>
+      </c>
+      <c r="B11">
+        <v>138.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>27.88</v>
+      </c>
+      <c r="B12">
+        <v>99.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>30.6</v>
+      </c>
+      <c r="B13">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>31.96</v>
+      </c>
+      <c r="B14">
+        <v>49.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>33.32</v>
+      </c>
+      <c r="B15">
+        <v>35.200000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>34.68</v>
+      </c>
+      <c r="B16">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>36.04</v>
+      </c>
+      <c r="B17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>37.4</v>
+      </c>
+      <c r="B18">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>38.76</v>
+      </c>
+      <c r="B19">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>44.2</v>
+      </c>
+      <c r="B20">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>57.8</v>
+      </c>
+      <c r="B21">
+        <v>0.16</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B21" xr:uid="{6FF2DE5A-5586-B345-AA75-02DC928A4E8A}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B21">
+      <sortCondition ref="A1:A21"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/5 семестр (Квантовая физика)/4.1/4.1.xlsx
+++ b/5 семестр (Квантовая физика)/4.1/4.1.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leonidbarinov/Desktop/latexlabs/5 семестр (Квантовая физика)/4.1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949FF178-4998-C34D-A443-9773B886B075}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46DCDD4-77E2-5A47-ADB4-91225F7B5058}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="3" xr2:uid="{B42A2861-1699-164D-92C1-36A0D4A94945}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="4" xr2:uid="{B42A2861-1699-164D-92C1-36A0D4A94945}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
     <sheet name="Лист4" sheetId="4" r:id="rId4"/>
+    <sheet name="Лист5" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Лист3!$A$1:$B$34</definedName>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
   <si>
     <t>I, pA</t>
   </si>
@@ -101,6 +102,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -131,8 +135,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2630,7 +2636,7 @@
   <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3603,7 +3609,7 @@
   <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection sqref="A1:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3897,8 +3903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B611C3-2F1C-4040-84B0-6D5E507FAFC3}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4079,4 +4085,413 @@
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E8A10D7-DC9A-9B41-AB1E-74C6432AA2A5}">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1">
+        <v>65.959999999999994</v>
+      </c>
+      <c r="D2">
+        <v>835</v>
+      </c>
+      <c r="E2" s="1">
+        <v>79.56</v>
+      </c>
+      <c r="F2">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="B3">
+        <v>42</v>
+      </c>
+      <c r="C3" s="1">
+        <v>67.319999999999993</v>
+      </c>
+      <c r="D3">
+        <v>851</v>
+      </c>
+      <c r="E3" s="1">
+        <v>80.92</v>
+      </c>
+      <c r="F3">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>188</v>
+      </c>
+      <c r="C4" s="1">
+        <v>68.680000000000007</v>
+      </c>
+      <c r="D4">
+        <v>875</v>
+      </c>
+      <c r="E4" s="1">
+        <v>82.28</v>
+      </c>
+      <c r="F4">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>30.6</v>
+      </c>
+      <c r="B5">
+        <v>348</v>
+      </c>
+      <c r="C5" s="1">
+        <v>70.040000000000006</v>
+      </c>
+      <c r="D5">
+        <v>895</v>
+      </c>
+      <c r="E5" s="1">
+        <v>83.64</v>
+      </c>
+      <c r="F5">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>44.2</v>
+      </c>
+      <c r="B6">
+        <v>522</v>
+      </c>
+      <c r="C6" s="1">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="D6">
+        <v>908</v>
+      </c>
+      <c r="E6" s="1">
+        <v>85</v>
+      </c>
+      <c r="F6">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>57.8</v>
+      </c>
+      <c r="B7">
+        <v>711</v>
+      </c>
+      <c r="C7" s="1">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="D7">
+        <v>911</v>
+      </c>
+      <c r="E7" s="1">
+        <v>87.72</v>
+      </c>
+      <c r="F7">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>59.16</v>
+      </c>
+      <c r="B8">
+        <v>733</v>
+      </c>
+      <c r="C8" s="1">
+        <v>72.760000000000005</v>
+      </c>
+      <c r="D8">
+        <v>928</v>
+      </c>
+      <c r="E8" s="1">
+        <v>90.44</v>
+      </c>
+      <c r="F8">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>60.52</v>
+      </c>
+      <c r="B9">
+        <v>754</v>
+      </c>
+      <c r="C9" s="1">
+        <v>74.12</v>
+      </c>
+      <c r="D9">
+        <v>931</v>
+      </c>
+      <c r="E9" s="1">
+        <v>93.16</v>
+      </c>
+      <c r="F9">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>61.88</v>
+      </c>
+      <c r="B10">
+        <v>772</v>
+      </c>
+      <c r="C10" s="1">
+        <v>75.48</v>
+      </c>
+      <c r="D10">
+        <v>941</v>
+      </c>
+      <c r="E10" s="1">
+        <v>95.88</v>
+      </c>
+      <c r="F10">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>63.24</v>
+      </c>
+      <c r="B11">
+        <v>793</v>
+      </c>
+      <c r="C11" s="1">
+        <v>76.84</v>
+      </c>
+      <c r="D11">
+        <v>943</v>
+      </c>
+      <c r="E11" s="1">
+        <v>98.6</v>
+      </c>
+      <c r="F11">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="B12">
+        <v>816</v>
+      </c>
+      <c r="C12" s="1">
+        <v>78.2</v>
+      </c>
+      <c r="D12">
+        <v>946</v>
+      </c>
+      <c r="E12" s="1">
+        <v>99.28</v>
+      </c>
+      <c r="F12">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>0</v>
+      </c>
+      <c r="B17" s="2">
+        <v>364.5</v>
+      </c>
+      <c r="C17" s="1">
+        <v>19.72</v>
+      </c>
+      <c r="D17" s="2">
+        <v>215.4</v>
+      </c>
+      <c r="E17" s="1">
+        <v>34.68</v>
+      </c>
+      <c r="F17" s="2">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="B18" s="2">
+        <v>345.1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>22.44</v>
+      </c>
+      <c r="D18" s="2">
+        <v>181.2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>36.04</v>
+      </c>
+      <c r="F18" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>6.12</v>
+      </c>
+      <c r="B19" s="2">
+        <v>336.8</v>
+      </c>
+      <c r="C19" s="1">
+        <v>25.16</v>
+      </c>
+      <c r="D19" s="2">
+        <v>138.4</v>
+      </c>
+      <c r="E19" s="1">
+        <v>37.4</v>
+      </c>
+      <c r="F19" s="2">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>8.84</v>
+      </c>
+      <c r="B20" s="2">
+        <v>325.2</v>
+      </c>
+      <c r="C20" s="1">
+        <v>27.88</v>
+      </c>
+      <c r="D20" s="2">
+        <v>99.7</v>
+      </c>
+      <c r="E20" s="1">
+        <v>38.76</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>11.56</v>
+      </c>
+      <c r="B21" s="2">
+        <v>295.60000000000002</v>
+      </c>
+      <c r="C21" s="1">
+        <v>30.6</v>
+      </c>
+      <c r="D21" s="2">
+        <v>63</v>
+      </c>
+      <c r="E21" s="1">
+        <v>44.2</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>14.28</v>
+      </c>
+      <c r="B22" s="2">
+        <v>284.8</v>
+      </c>
+      <c r="C22" s="1">
+        <v>31.96</v>
+      </c>
+      <c r="D22" s="2">
+        <v>49.2</v>
+      </c>
+      <c r="E22" s="1">
+        <v>57.8</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>17</v>
+      </c>
+      <c r="B23" s="2">
+        <v>238.1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>33.32</v>
+      </c>
+      <c r="D23" s="2">
+        <v>35.200000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>